--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd80-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd80-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.557693</v>
+        <v>1.152905666666667</v>
       </c>
       <c r="H2">
-        <v>64.673079</v>
+        <v>3.458717</v>
       </c>
       <c r="I2">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114324</v>
       </c>
       <c r="J2">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114325</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1791996666666666</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N2">
-        <v>0.5375989999999999</v>
+        <v>15.820232</v>
       </c>
       <c r="O2">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.863131399702333</v>
+        <v>6.079745040260445</v>
       </c>
       <c r="R2">
-        <v>34.76818259732099</v>
+        <v>54.71770536234401</v>
       </c>
       <c r="S2">
-        <v>0.02340519886995976</v>
+        <v>0.06522949989114324</v>
       </c>
       <c r="T2">
-        <v>0.02340519886995976</v>
+        <v>0.06522949989114325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.557693</v>
+        <v>3.981869333333333</v>
       </c>
       <c r="H3">
-        <v>64.673079</v>
+        <v>11.945608</v>
       </c>
       <c r="I3">
-        <v>0.5505707555812251</v>
+        <v>0.2252875952949142</v>
       </c>
       <c r="J3">
-        <v>0.5505707555812251</v>
+        <v>0.2252875952949143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.036192666666667</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N3">
-        <v>12.108578</v>
+        <v>15.820232</v>
       </c>
       <c r="O3">
-        <v>0.9574892080033358</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9574892080033357</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>87.01100239685134</v>
+        <v>20.99803221567289</v>
       </c>
       <c r="R3">
-        <v>783.099021571662</v>
+        <v>188.982289941056</v>
       </c>
       <c r="S3">
-        <v>0.5271655567112654</v>
+        <v>0.2252875952949142</v>
       </c>
       <c r="T3">
-        <v>0.5271655567112654</v>
+        <v>0.2252875952949143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.981869333333333</v>
+        <v>1.517768666666667</v>
       </c>
       <c r="H4">
-        <v>11.945608</v>
+        <v>4.553306</v>
       </c>
       <c r="I4">
-        <v>0.1016945926207894</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="J4">
-        <v>0.1016945926207894</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1791996666666666</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N4">
-        <v>0.5375989999999999</v>
+        <v>15.820232</v>
       </c>
       <c r="O4">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.7135496572435555</v>
+        <v>8.003817476332445</v>
       </c>
       <c r="R4">
-        <v>6.421946915192</v>
+        <v>72.03435728699201</v>
       </c>
       <c r="S4">
-        <v>0.004323117674087888</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="T4">
-        <v>0.004323117674087888</v>
+        <v>0.08587284626968379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.981869333333333</v>
+        <v>11.02206166666667</v>
       </c>
       <c r="H5">
-        <v>11.945608</v>
+        <v>33.066185</v>
       </c>
       <c r="I5">
-        <v>0.1016945926207894</v>
+        <v>0.6236100585442587</v>
       </c>
       <c r="J5">
-        <v>0.1016945926207894</v>
+        <v>0.6236100585442588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.036192666666667</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N5">
-        <v>12.108578</v>
+        <v>15.820232</v>
       </c>
       <c r="O5">
-        <v>0.9574892080033358</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9574892080033357</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>16.07159180282489</v>
+        <v>58.12385756165779</v>
       </c>
       <c r="R5">
-        <v>144.644326225424</v>
+        <v>523.1147180549201</v>
       </c>
       <c r="S5">
-        <v>0.09737147494670148</v>
+        <v>0.6236100585442587</v>
       </c>
       <c r="T5">
-        <v>0.09737147494670148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.608641</v>
-      </c>
-      <c r="H6">
-        <v>4.825923</v>
-      </c>
-      <c r="I6">
-        <v>0.04108374169856384</v>
-      </c>
-      <c r="J6">
-        <v>0.04108374169856383</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1791996666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.5375989999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="P6">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="Q6">
-        <v>0.2882679309863334</v>
-      </c>
-      <c r="R6">
-        <v>2.594411378877</v>
-      </c>
-      <c r="S6">
-        <v>0.00174650239779233</v>
-      </c>
-      <c r="T6">
-        <v>0.00174650239779233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.608641</v>
-      </c>
-      <c r="H7">
-        <v>4.825923</v>
-      </c>
-      <c r="I7">
-        <v>0.04108374169856384</v>
-      </c>
-      <c r="J7">
-        <v>0.04108374169856383</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.036192666666667</v>
-      </c>
-      <c r="N7">
-        <v>12.108578</v>
-      </c>
-      <c r="O7">
-        <v>0.9574892080033358</v>
-      </c>
-      <c r="P7">
-        <v>0.9574892080033357</v>
-      </c>
-      <c r="Q7">
-        <v>6.492785007499334</v>
-      </c>
-      <c r="R7">
-        <v>58.435065067494</v>
-      </c>
-      <c r="S7">
-        <v>0.03933723930077151</v>
-      </c>
-      <c r="T7">
-        <v>0.0393372393007715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>12.00696933333333</v>
-      </c>
-      <c r="H8">
-        <v>36.020908</v>
-      </c>
-      <c r="I8">
-        <v>0.3066509100994217</v>
-      </c>
-      <c r="J8">
-        <v>0.3066509100994217</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1791996666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.5375989999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="P8">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="Q8">
-        <v>2.151644902210222</v>
-      </c>
-      <c r="R8">
-        <v>19.364804119892</v>
-      </c>
-      <c r="S8">
-        <v>0.01303597305482431</v>
-      </c>
-      <c r="T8">
-        <v>0.01303597305482431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>12.00696933333333</v>
-      </c>
-      <c r="H9">
-        <v>36.020908</v>
-      </c>
-      <c r="I9">
-        <v>0.3066509100994217</v>
-      </c>
-      <c r="J9">
-        <v>0.3066509100994217</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.036192666666667</v>
-      </c>
-      <c r="N9">
-        <v>12.108578</v>
-      </c>
-      <c r="O9">
-        <v>0.9574892080033358</v>
-      </c>
-      <c r="P9">
-        <v>0.9574892080033357</v>
-      </c>
-      <c r="Q9">
-        <v>48.46244157209155</v>
-      </c>
-      <c r="R9">
-        <v>436.161974148824</v>
-      </c>
-      <c r="S9">
-        <v>0.2936149370445974</v>
-      </c>
-      <c r="T9">
-        <v>0.2936149370445973</v>
+        <v>0.6236100585442588</v>
       </c>
     </row>
   </sheetData>
